--- a/data/pca/factorExposure/factorExposure_2018-10-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.06523532599213727</v>
+        <v>0.0439502976216612</v>
       </c>
       <c r="C2">
-        <v>0.06465853095073804</v>
+        <v>-0.002883573168689646</v>
       </c>
       <c r="D2">
-        <v>-0.04782996748617935</v>
+        <v>0.01657661851278561</v>
       </c>
       <c r="E2">
-        <v>0.06463609552442361</v>
+        <v>0.01560763333540228</v>
       </c>
       <c r="F2">
-        <v>-0.1455641028435183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04502215608610028</v>
+      </c>
+      <c r="G2">
+        <v>-0.1062958194060592</v>
+      </c>
+      <c r="H2">
+        <v>0.05229787704394935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1689195719782496</v>
+        <v>0.111243961120929</v>
       </c>
       <c r="C3">
-        <v>0.02069677324667901</v>
+        <v>0.03938683857999844</v>
       </c>
       <c r="D3">
-        <v>-0.06645779276186352</v>
+        <v>0.03648417989597266</v>
       </c>
       <c r="E3">
-        <v>0.1172723657002781</v>
+        <v>0.01054734511989627</v>
       </c>
       <c r="F3">
-        <v>-0.409889709541223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.02238712950602404</v>
+      </c>
+      <c r="G3">
+        <v>-0.3406747963178998</v>
+      </c>
+      <c r="H3">
+        <v>0.1696054087851554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06396620641923131</v>
+        <v>0.05477280134172372</v>
       </c>
       <c r="C4">
-        <v>0.03591025251009401</v>
+        <v>0.005930882798482816</v>
       </c>
       <c r="D4">
-        <v>-0.019608185342865</v>
+        <v>0.03310676253808684</v>
       </c>
       <c r="E4">
-        <v>0.0837353785122317</v>
+        <v>-0.01716868974939284</v>
       </c>
       <c r="F4">
-        <v>-0.05368415479571239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06686692603104956</v>
+      </c>
+      <c r="G4">
+        <v>-0.05371052006625491</v>
+      </c>
+      <c r="H4">
+        <v>0.01221514000477246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.008210919944224912</v>
+        <v>0.03290896202287814</v>
       </c>
       <c r="C6">
-        <v>0.003727467917320733</v>
+        <v>0.002255796805407009</v>
       </c>
       <c r="D6">
-        <v>-0.007046259156446673</v>
+        <v>0.02723613212378948</v>
       </c>
       <c r="E6">
-        <v>-0.0007996541096753928</v>
+        <v>-0.004002225831977513</v>
       </c>
       <c r="F6">
-        <v>-0.002784297679823034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03070412596654097</v>
+      </c>
+      <c r="G6">
+        <v>-0.01075553960327311</v>
+      </c>
+      <c r="H6">
+        <v>-0.04614764841533744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03580708507802281</v>
+        <v>0.02776303225670939</v>
       </c>
       <c r="C7">
-        <v>0.01945090370646568</v>
+        <v>0.00362940400373308</v>
       </c>
       <c r="D7">
-        <v>-0.03492053799374623</v>
+        <v>0.01918534888935462</v>
       </c>
       <c r="E7">
-        <v>0.03836147679098638</v>
+        <v>-0.03392005147626262</v>
       </c>
       <c r="F7">
-        <v>-0.05963755590880939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02900881897671745</v>
+      </c>
+      <c r="G7">
+        <v>-0.04770438345650949</v>
+      </c>
+      <c r="H7">
+        <v>0.01745665852121231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02974978760620734</v>
+        <v>0.01124294740264749</v>
       </c>
       <c r="C8">
-        <v>0.008058781434361945</v>
+        <v>0.005848514041999485</v>
       </c>
       <c r="D8">
-        <v>-0.01325489877322341</v>
+        <v>0.02409382389952036</v>
       </c>
       <c r="E8">
-        <v>0.0750758415868175</v>
+        <v>-0.01025956035481187</v>
       </c>
       <c r="F8">
-        <v>-0.0915759150666499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03172601958685807</v>
+      </c>
+      <c r="G8">
+        <v>-0.06426064738368878</v>
+      </c>
+      <c r="H8">
+        <v>0.03883661709689547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05263528733448888</v>
+        <v>0.04417539851395384</v>
       </c>
       <c r="C9">
-        <v>0.03032004401553989</v>
+        <v>0.008402338446221159</v>
       </c>
       <c r="D9">
-        <v>-0.003212828702599626</v>
+        <v>0.02933795234332523</v>
       </c>
       <c r="E9">
-        <v>0.08761720470305849</v>
+        <v>-0.01715043632369777</v>
       </c>
       <c r="F9">
-        <v>-0.05350337635899084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04703435861255725</v>
+      </c>
+      <c r="G9">
+        <v>-0.07232383952020438</v>
+      </c>
+      <c r="H9">
+        <v>0.01266945390122921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04208907884610754</v>
+        <v>0.06331509009506998</v>
       </c>
       <c r="C10">
-        <v>0.04890904985596849</v>
+        <v>0.02482357776809722</v>
       </c>
       <c r="D10">
-        <v>0.05765731820297963</v>
+        <v>-0.1584308210326399</v>
       </c>
       <c r="E10">
-        <v>-0.1438256442036671</v>
+        <v>0.01735855471748809</v>
       </c>
       <c r="F10">
-        <v>-0.0851135142772925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.08071250725274938</v>
+      </c>
+      <c r="G10">
+        <v>-0.0535850242070303</v>
+      </c>
+      <c r="H10">
+        <v>0.01517160955930319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04421819494286567</v>
+        <v>0.0304523184087247</v>
       </c>
       <c r="C11">
-        <v>0.008964422964638862</v>
+        <v>0.01592709535400171</v>
       </c>
       <c r="D11">
-        <v>-0.02269684508087816</v>
+        <v>0.03393990194402331</v>
       </c>
       <c r="E11">
-        <v>0.03467298775375642</v>
+        <v>0.005337418751967188</v>
       </c>
       <c r="F11">
-        <v>-0.03206596472128598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02613390148078447</v>
+      </c>
+      <c r="G11">
+        <v>-0.04299303424009371</v>
+      </c>
+      <c r="H11">
+        <v>-0.003282349672828877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04607799725645519</v>
+        <v>0.03663505876211882</v>
       </c>
       <c r="C12">
-        <v>0.009982839951407712</v>
+        <v>0.01383019432988317</v>
       </c>
       <c r="D12">
-        <v>-0.01185641547574157</v>
+        <v>0.03198003625479397</v>
       </c>
       <c r="E12">
-        <v>0.04710768850767536</v>
+        <v>-0.005451597570491666</v>
       </c>
       <c r="F12">
-        <v>-0.01427905540208162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02723593402411106</v>
+      </c>
+      <c r="G12">
+        <v>-0.01167901661522269</v>
+      </c>
+      <c r="H12">
+        <v>7.904582403005667e-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.03834980583068133</v>
+        <v>0.03467513489295344</v>
       </c>
       <c r="C13">
-        <v>0.0250277086109945</v>
+        <v>-0.005874983812637061</v>
       </c>
       <c r="D13">
-        <v>-0.04199027819905762</v>
+        <v>0.008234757470272441</v>
       </c>
       <c r="E13">
-        <v>0.03171850380454859</v>
+        <v>0.01679670582823451</v>
       </c>
       <c r="F13">
-        <v>-0.1014882277835487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02818013632978766</v>
+      </c>
+      <c r="G13">
+        <v>-0.08116036030466818</v>
+      </c>
+      <c r="H13">
+        <v>0.02034689669806236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01706621244751289</v>
+        <v>0.01733223440006522</v>
       </c>
       <c r="C14">
-        <v>0.02423155687742058</v>
+        <v>0.003185061827097498</v>
       </c>
       <c r="D14">
-        <v>-0.01301290074238565</v>
+        <v>0.001020612546835131</v>
       </c>
       <c r="E14">
-        <v>0.04322385378457698</v>
+        <v>-0.007353445165815584</v>
       </c>
       <c r="F14">
-        <v>-0.05315397183038535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03078518002811368</v>
+      </c>
+      <c r="G14">
+        <v>-0.03797915737974644</v>
+      </c>
+      <c r="H14">
+        <v>0.05543797253915218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03514532158624922</v>
+        <v>0.02934252707535997</v>
       </c>
       <c r="C16">
-        <v>0.01035686805065977</v>
+        <v>0.01520389193179991</v>
       </c>
       <c r="D16">
-        <v>-0.01896171405403872</v>
+        <v>0.03098465196148373</v>
       </c>
       <c r="E16">
-        <v>0.03299385182322551</v>
+        <v>0.0003455594389235914</v>
       </c>
       <c r="F16">
-        <v>-0.03208705970350516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02593537081475336</v>
+      </c>
+      <c r="G16">
+        <v>-0.03125395084678922</v>
+      </c>
+      <c r="H16">
+        <v>-0.0009137987264682196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04589678211411232</v>
+        <v>0.03777721164437747</v>
       </c>
       <c r="C19">
-        <v>0.009367143706493714</v>
+        <v>0.006981108846859432</v>
       </c>
       <c r="D19">
-        <v>-0.03095686149854564</v>
+        <v>0.01687452414151241</v>
       </c>
       <c r="E19">
-        <v>0.04125874245868621</v>
+        <v>0.00467923525184064</v>
       </c>
       <c r="F19">
-        <v>-0.09110473445102227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03766910610826362</v>
+      </c>
+      <c r="G19">
+        <v>-0.08197326185976597</v>
+      </c>
+      <c r="H19">
+        <v>0.02095903830513863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.008946530624125992</v>
+        <v>0.01077927838163785</v>
       </c>
       <c r="C20">
-        <v>0.02007992488902946</v>
+        <v>-0.004541203119774235</v>
       </c>
       <c r="D20">
-        <v>-0.02146494974450383</v>
+        <v>0.01259708379226627</v>
       </c>
       <c r="E20">
-        <v>0.05669265910962642</v>
+        <v>-0.003746026723864617</v>
       </c>
       <c r="F20">
-        <v>-0.06718552095102689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02638730049544183</v>
+      </c>
+      <c r="G20">
+        <v>-0.05067242979321562</v>
+      </c>
+      <c r="H20">
+        <v>0.03774851849306132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0108129018480237</v>
+        <v>0.0245026701618905</v>
       </c>
       <c r="C21">
-        <v>0.002368616135612555</v>
+        <v>-0.002295844413583</v>
       </c>
       <c r="D21">
-        <v>-0.02100377165400985</v>
+        <v>0.0009544546360594275</v>
       </c>
       <c r="E21">
-        <v>0.03746041186144838</v>
+        <v>-0.0107405746885645</v>
       </c>
       <c r="F21">
-        <v>-0.08619337096650602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01274006464566427</v>
+      </c>
+      <c r="G21">
+        <v>-0.06421589033490283</v>
+      </c>
+      <c r="H21">
+        <v>0.01940593360407433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03476499446269503</v>
+        <v>0.0283005661259891</v>
       </c>
       <c r="C24">
-        <v>0.007845966241199764</v>
+        <v>0.009879663382055062</v>
       </c>
       <c r="D24">
-        <v>-0.01553985739775085</v>
+        <v>0.03073287683230825</v>
       </c>
       <c r="E24">
-        <v>0.03235263502627356</v>
+        <v>-0.0003488885075979114</v>
       </c>
       <c r="F24">
-        <v>-0.0353278965243494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0227256934482201</v>
+      </c>
+      <c r="G24">
+        <v>-0.03365990672433996</v>
+      </c>
+      <c r="H24">
+        <v>-0.007456436031398036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03777520178014708</v>
+        <v>0.03795228767515763</v>
       </c>
       <c r="C25">
-        <v>0.009355971577313306</v>
+        <v>0.009069864176902094</v>
       </c>
       <c r="D25">
-        <v>-0.01307112692528853</v>
+        <v>0.02371683646154238</v>
       </c>
       <c r="E25">
-        <v>0.03595022889977191</v>
+        <v>-0.0007341974809236734</v>
       </c>
       <c r="F25">
-        <v>-0.03733912557599819</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0281783372472189</v>
+      </c>
+      <c r="G25">
+        <v>-0.04083445128137238</v>
+      </c>
+      <c r="H25">
+        <v>-0.008137992982637596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01912359674942761</v>
+        <v>0.01981688824614196</v>
       </c>
       <c r="C26">
-        <v>0.0007959376113929647</v>
+        <v>-0.01562793379893635</v>
       </c>
       <c r="D26">
-        <v>-0.04224053995644035</v>
+        <v>0.01118010650301569</v>
       </c>
       <c r="E26">
-        <v>0.04107902322083985</v>
+        <v>0.005680245952314678</v>
       </c>
       <c r="F26">
-        <v>-0.05267806766306232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009965693803444652</v>
+      </c>
+      <c r="G26">
+        <v>-0.04406951193502755</v>
+      </c>
+      <c r="H26">
+        <v>0.03524812881382709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09268557482193603</v>
+        <v>0.04335213531899513</v>
       </c>
       <c r="C27">
-        <v>0.05093413310495288</v>
+        <v>0.02263382020393481</v>
       </c>
       <c r="D27">
-        <v>-0.006291162719396747</v>
+        <v>0.006865814848995624</v>
       </c>
       <c r="E27">
-        <v>0.05518107259890277</v>
+        <v>-0.001770619547083405</v>
       </c>
       <c r="F27">
-        <v>-0.05311457627272019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03208874467714412</v>
+      </c>
+      <c r="G27">
+        <v>-0.03490820085233976</v>
+      </c>
+      <c r="H27">
+        <v>0.02446360289899933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05822462284203674</v>
+        <v>0.09703105422962977</v>
       </c>
       <c r="C28">
-        <v>0.05643151734793285</v>
+        <v>0.02355691465287559</v>
       </c>
       <c r="D28">
-        <v>0.1021501842809179</v>
+        <v>-0.2359710117866819</v>
       </c>
       <c r="E28">
-        <v>-0.2192071246031719</v>
+        <v>0.01864567938008213</v>
       </c>
       <c r="F28">
-        <v>-0.09420533157397067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1194117159511008</v>
+      </c>
+      <c r="G28">
+        <v>-0.03606751044157101</v>
+      </c>
+      <c r="H28">
+        <v>0.03459745796762618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02329430085430696</v>
+        <v>0.02217757828725049</v>
       </c>
       <c r="C29">
-        <v>0.02128574855450227</v>
+        <v>0.005492627716568713</v>
       </c>
       <c r="D29">
-        <v>-0.009970511176675082</v>
+        <v>0.003406104341987301</v>
       </c>
       <c r="E29">
-        <v>0.05432695777344294</v>
+        <v>-0.007834253366017429</v>
       </c>
       <c r="F29">
-        <v>-0.03876786997262275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0307555411787858</v>
+      </c>
+      <c r="G29">
+        <v>-0.032413830139868</v>
+      </c>
+      <c r="H29">
+        <v>0.05285161774508245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09701871146149485</v>
+        <v>0.07204174164432658</v>
       </c>
       <c r="C30">
-        <v>0.05296451634824124</v>
+        <v>0.01248072414182413</v>
       </c>
       <c r="D30">
-        <v>-0.0472972187486894</v>
+        <v>0.04686374795360784</v>
       </c>
       <c r="E30">
-        <v>0.07120645036813739</v>
+        <v>0.04080454063600492</v>
       </c>
       <c r="F30">
-        <v>-0.06355559078954508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07310689492124264</v>
+      </c>
+      <c r="G30">
+        <v>-0.08404411253808197</v>
+      </c>
+      <c r="H30">
+        <v>0.0029900397988593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06104643971646809</v>
+        <v>0.05425251400494589</v>
       </c>
       <c r="C31">
-        <v>0.0143063168131999</v>
+        <v>0.02210644327847783</v>
       </c>
       <c r="D31">
-        <v>-0.04743895607148235</v>
+        <v>0.01435681760872973</v>
       </c>
       <c r="E31">
-        <v>0.01902513190527568</v>
+        <v>0.01067060969007393</v>
       </c>
       <c r="F31">
-        <v>-0.02388082283597671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02067835250158897</v>
+      </c>
+      <c r="G31">
+        <v>-0.0147184128558078</v>
+      </c>
+      <c r="H31">
+        <v>0.04617053812815775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.04116472024457841</v>
+        <v>0.01743227956088647</v>
       </c>
       <c r="C32">
-        <v>0.0200950208304236</v>
+        <v>0.02030677557985075</v>
       </c>
       <c r="D32">
-        <v>-0.0203905126207919</v>
+        <v>0.01033600196852805</v>
       </c>
       <c r="E32">
-        <v>0.08977089106127999</v>
+        <v>-0.01562946324322939</v>
       </c>
       <c r="F32">
-        <v>-0.07141399097454075</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05424478289401288</v>
+      </c>
+      <c r="G32">
+        <v>-0.06261378418940876</v>
+      </c>
+      <c r="H32">
+        <v>-0.002521439841918444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05953528548068474</v>
+        <v>0.0454997741771592</v>
       </c>
       <c r="C33">
-        <v>0.005379598169242132</v>
+        <v>0.009246403623041733</v>
       </c>
       <c r="D33">
-        <v>-0.05547143455956268</v>
+        <v>0.0326791487419688</v>
       </c>
       <c r="E33">
-        <v>0.06014122169863371</v>
+        <v>0.02380567238267191</v>
       </c>
       <c r="F33">
-        <v>-0.08089634054398964</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02005298439271226</v>
+      </c>
+      <c r="G33">
+        <v>-0.07233025535093773</v>
+      </c>
+      <c r="H33">
+        <v>0.03230233485293223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0383543615718714</v>
+        <v>0.03039828195753495</v>
       </c>
       <c r="C34">
-        <v>0.01633546100386561</v>
+        <v>0.0233303747037555</v>
       </c>
       <c r="D34">
-        <v>-0.01755840176403441</v>
+        <v>0.02665541722830505</v>
       </c>
       <c r="E34">
-        <v>0.03826850402460421</v>
+        <v>-0.004897740870951382</v>
       </c>
       <c r="F34">
-        <v>-0.03492642226061381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02896643684075536</v>
+      </c>
+      <c r="G34">
+        <v>-0.03283637291279335</v>
+      </c>
+      <c r="H34">
+        <v>-0.005935244729777833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01377700004586428</v>
+        <v>0.0186358188066768</v>
       </c>
       <c r="C36">
-        <v>0.008124007617482349</v>
+        <v>-0.0026099283111009</v>
       </c>
       <c r="D36">
-        <v>-0.003798367080560785</v>
+        <v>-0.002134461579317618</v>
       </c>
       <c r="E36">
-        <v>0.0257587150009204</v>
+        <v>-0.00297459391176516</v>
       </c>
       <c r="F36">
-        <v>-0.02468641483698749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.007078014325939509</v>
+      </c>
+      <c r="G36">
+        <v>-0.02461919560364785</v>
+      </c>
+      <c r="H36">
+        <v>0.02933902238038254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01070863587207138</v>
+        <v>0.01729944790303107</v>
       </c>
       <c r="C38">
-        <v>0.002244979053392057</v>
+        <v>0.01809074000253452</v>
       </c>
       <c r="D38">
-        <v>0.01153541831076789</v>
+        <v>-0.0002956187609182779</v>
       </c>
       <c r="E38">
-        <v>0.005502369482426338</v>
+        <v>-0.005299023129570024</v>
       </c>
       <c r="F38">
-        <v>-0.02229418392882569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01348947616532283</v>
+      </c>
+      <c r="G38">
+        <v>-0.04082747187494177</v>
+      </c>
+      <c r="H38">
+        <v>0.008896121564233831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05004640382529995</v>
+        <v>0.03628054060216611</v>
       </c>
       <c r="C39">
-        <v>0.0222611024260333</v>
+        <v>0.01269864767573471</v>
       </c>
       <c r="D39">
-        <v>-0.03558893253328696</v>
+        <v>0.06400438725082215</v>
       </c>
       <c r="E39">
-        <v>0.03746572251252096</v>
+        <v>0.004128132901062193</v>
       </c>
       <c r="F39">
-        <v>-0.03269273614481349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05085822601746852</v>
+      </c>
+      <c r="G39">
+        <v>-0.05607126909991005</v>
+      </c>
+      <c r="H39">
+        <v>-0.0270445025096696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.04536646927598594</v>
+        <v>0.03829108103873478</v>
       </c>
       <c r="C40">
-        <v>0.04434643933617165</v>
+        <v>0.009637418074439472</v>
       </c>
       <c r="D40">
-        <v>-0.0624727653087411</v>
+        <v>0.0259846144967805</v>
       </c>
       <c r="E40">
-        <v>0.04828951015269996</v>
+        <v>0.02214259198855999</v>
       </c>
       <c r="F40">
-        <v>-0.08872148540125345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0448472051024006</v>
+      </c>
+      <c r="G40">
+        <v>-0.06531913091557101</v>
+      </c>
+      <c r="H40">
+        <v>0.005649324909392401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005623345089849444</v>
+        <v>0.004841292357279786</v>
       </c>
       <c r="C41">
-        <v>-0.002589253401133747</v>
+        <v>-0.001993657725567494</v>
       </c>
       <c r="D41">
-        <v>-0.0117133480251827</v>
+        <v>-0.006473923655074552</v>
       </c>
       <c r="E41">
-        <v>0.02400729408133927</v>
+        <v>0.0006253566454027965</v>
       </c>
       <c r="F41">
-        <v>-0.02080069636386859</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.001074183514419821</v>
+      </c>
+      <c r="G41">
+        <v>-0.009948626761654204</v>
+      </c>
+      <c r="H41">
+        <v>0.0412347227434141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3366146626315398</v>
+        <v>0.2605660559833521</v>
       </c>
       <c r="C42">
-        <v>-0.8983490143204693</v>
+        <v>-0.05768016992029349</v>
       </c>
       <c r="D42">
-        <v>-0.1348470745372635</v>
+        <v>0.542515557171221</v>
       </c>
       <c r="E42">
-        <v>-0.1770995039933584</v>
+        <v>0.09154899516869899</v>
       </c>
       <c r="F42">
-        <v>0.0184440363947443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7777216215415146</v>
+      </c>
+      <c r="G42">
+        <v>0.04993859325675144</v>
+      </c>
+      <c r="H42">
+        <v>-0.008774249527635338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01254792286627823</v>
+        <v>0.003118423415174178</v>
       </c>
       <c r="C43">
-        <v>0.00145321739170771</v>
+        <v>-0.003873762071326136</v>
       </c>
       <c r="D43">
-        <v>-0.01920775149236374</v>
+        <v>-0.007591034148686822</v>
       </c>
       <c r="E43">
-        <v>0.02771737918823996</v>
+        <v>0.004578240857677388</v>
       </c>
       <c r="F43">
-        <v>-0.03036075175240772</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003791456241176146</v>
+      </c>
+      <c r="G43">
+        <v>-0.01771290220051522</v>
+      </c>
+      <c r="H43">
+        <v>0.0454664889445258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02856859743908022</v>
+        <v>0.01735257051803495</v>
       </c>
       <c r="C44">
-        <v>0.00891390450777485</v>
+        <v>0.003558076967261049</v>
       </c>
       <c r="D44">
-        <v>-0.03862864051511323</v>
+        <v>0.02620342278034675</v>
       </c>
       <c r="E44">
-        <v>0.06462227453478378</v>
+        <v>-0.001469064093897795</v>
       </c>
       <c r="F44">
-        <v>-0.189166121787158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0116748612568277</v>
+      </c>
+      <c r="G44">
+        <v>-0.1070273421606043</v>
+      </c>
+      <c r="H44">
+        <v>0.05036106188204564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02326589777043499</v>
+        <v>0.02283441265522207</v>
       </c>
       <c r="C46">
-        <v>0.01836753042475951</v>
+        <v>0.002018167266624806</v>
       </c>
       <c r="D46">
-        <v>-0.02895262026214616</v>
+        <v>0.009627619533949458</v>
       </c>
       <c r="E46">
-        <v>0.05049584073779505</v>
+        <v>0.004856776568164403</v>
       </c>
       <c r="F46">
-        <v>-0.03651072931641063</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03662172479295742</v>
+      </c>
+      <c r="G46">
+        <v>-0.04520657760899769</v>
+      </c>
+      <c r="H46">
+        <v>0.05081772900039593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09644764178866752</v>
+        <v>0.07660355844919595</v>
       </c>
       <c r="C47">
-        <v>0.03225370944428081</v>
+        <v>0.04153385073291428</v>
       </c>
       <c r="D47">
-        <v>-0.02717263667270124</v>
+        <v>0.01466227117560839</v>
       </c>
       <c r="E47">
-        <v>0.03700283802681942</v>
+        <v>0.007048027468340871</v>
       </c>
       <c r="F47">
-        <v>0.0007076111345495106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03168747874032439</v>
+      </c>
+      <c r="G47">
+        <v>0.01681386114685165</v>
+      </c>
+      <c r="H47">
+        <v>0.05676755392955269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01521617377423483</v>
+        <v>0.01828634769469396</v>
       </c>
       <c r="C48">
-        <v>0.008705940083963909</v>
+        <v>0.007903271612892069</v>
       </c>
       <c r="D48">
-        <v>-0.01832551093925623</v>
+        <v>0.005568111927123595</v>
       </c>
       <c r="E48">
-        <v>0.04043920211971719</v>
+        <v>0.0008507064015490319</v>
       </c>
       <c r="F48">
-        <v>-0.04191902768698655</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01370613326406197</v>
+      </c>
+      <c r="G48">
+        <v>-0.03146748175067414</v>
+      </c>
+      <c r="H48">
+        <v>0.02340081902830512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0923450285551317</v>
+        <v>0.07297054111110204</v>
       </c>
       <c r="C50">
-        <v>0.01455962875161112</v>
+        <v>0.03654107115652092</v>
       </c>
       <c r="D50">
-        <v>-0.03992404395505486</v>
+        <v>0.0302670709732762</v>
       </c>
       <c r="E50">
-        <v>0.03741419759661141</v>
+        <v>-0.006778974771202162</v>
       </c>
       <c r="F50">
-        <v>-0.003743779329958859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02802272581629399</v>
+      </c>
+      <c r="G50">
+        <v>-0.01170530323380345</v>
+      </c>
+      <c r="H50">
+        <v>0.05691334109516038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04825977585428435</v>
+        <v>0.02879157096346066</v>
       </c>
       <c r="C51">
-        <v>-0.002479791288579292</v>
+        <v>0.004630119398094341</v>
       </c>
       <c r="D51">
-        <v>-0.04671602985444138</v>
+        <v>-0.001807283108509324</v>
       </c>
       <c r="E51">
-        <v>0.009474893577628662</v>
+        <v>0.01336719388110032</v>
       </c>
       <c r="F51">
-        <v>-0.1560472234111893</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01130340825493214</v>
+      </c>
+      <c r="G51">
+        <v>-0.1003300129969383</v>
+      </c>
+      <c r="H51">
+        <v>0.02835085493262586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1197976299132858</v>
+        <v>0.1048382518557071</v>
       </c>
       <c r="C53">
-        <v>0.0354882420745388</v>
+        <v>0.05570707369858875</v>
       </c>
       <c r="D53">
-        <v>-0.05024588974784662</v>
+        <v>0.04141931840826628</v>
       </c>
       <c r="E53">
-        <v>0.04748639859062237</v>
+        <v>0.006561262650099645</v>
       </c>
       <c r="F53">
-        <v>0.0707577485396515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05684253220407112</v>
+      </c>
+      <c r="G53">
+        <v>0.06363830587752778</v>
+      </c>
+      <c r="H53">
+        <v>0.03843240803313394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02239642418347655</v>
+        <v>0.02187110534649194</v>
       </c>
       <c r="C54">
-        <v>0.03120712696673641</v>
+        <v>0.01540766348287895</v>
       </c>
       <c r="D54">
-        <v>-0.008036635678411817</v>
+        <v>-0.02402365858615738</v>
       </c>
       <c r="E54">
-        <v>0.02786215953740988</v>
+        <v>-0.002782784206786379</v>
       </c>
       <c r="F54">
-        <v>-0.07187074941358002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01841641466314442</v>
+      </c>
+      <c r="G54">
+        <v>-0.04231944190914974</v>
+      </c>
+      <c r="H54">
+        <v>0.06761718525001949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1100881522061416</v>
+        <v>0.08971125131111021</v>
       </c>
       <c r="C55">
-        <v>0.02319555246206448</v>
+        <v>0.04846025780728903</v>
       </c>
       <c r="D55">
-        <v>-0.001709552808158332</v>
+        <v>0.03893624929545695</v>
       </c>
       <c r="E55">
-        <v>0.04862091056495545</v>
+        <v>-0.007111011060464781</v>
       </c>
       <c r="F55">
-        <v>0.05675877357444806</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04671125422627246</v>
+      </c>
+      <c r="G55">
+        <v>0.04963835367978994</v>
+      </c>
+      <c r="H55">
+        <v>0.04739957719429189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1425982404419786</v>
+        <v>0.1320095833181256</v>
       </c>
       <c r="C56">
-        <v>0.06951358882318592</v>
+        <v>0.07742695405387408</v>
       </c>
       <c r="D56">
-        <v>-0.02218191623387398</v>
+        <v>0.04539658641018508</v>
       </c>
       <c r="E56">
-        <v>0.05745787017107021</v>
+        <v>-0.0002844552577178419</v>
       </c>
       <c r="F56">
-        <v>0.1628921533150561</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08087758615663417</v>
+      </c>
+      <c r="G56">
+        <v>0.1140908650582526</v>
+      </c>
+      <c r="H56">
+        <v>0.01021914564290636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04806429918304121</v>
+        <v>0.04386254002135057</v>
       </c>
       <c r="C57">
-        <v>0.02184915375576408</v>
+        <v>-0.002620970592745062</v>
       </c>
       <c r="D57">
-        <v>-0.03950085120188113</v>
+        <v>0.02455662063131953</v>
       </c>
       <c r="E57">
-        <v>0.03116191646694106</v>
+        <v>0.01161108226554051</v>
       </c>
       <c r="F57">
-        <v>-0.07478633296985991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0348270140487791</v>
+      </c>
+      <c r="G57">
+        <v>-0.06614256012212118</v>
+      </c>
+      <c r="H57">
+        <v>0.003536540624672931</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2342746199967885</v>
+        <v>0.1527763752521245</v>
       </c>
       <c r="C58">
-        <v>0.0554912741968162</v>
+        <v>0.06603934794316932</v>
       </c>
       <c r="D58">
-        <v>-0.1192524484691596</v>
+        <v>0.09511900390977021</v>
       </c>
       <c r="E58">
-        <v>0.1144677179546721</v>
+        <v>0.1030913339899254</v>
       </c>
       <c r="F58">
-        <v>-0.2239128699742967</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07188059415868361</v>
+      </c>
+      <c r="G58">
+        <v>-0.4661378096884716</v>
+      </c>
+      <c r="H58">
+        <v>0.5017845613979797</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.06170004182225147</v>
+        <v>0.102732078276786</v>
       </c>
       <c r="C59">
-        <v>0.08626670724240734</v>
+        <v>0.03393436099584168</v>
       </c>
       <c r="D59">
-        <v>0.07495978711831103</v>
+        <v>-0.2245720665991268</v>
       </c>
       <c r="E59">
-        <v>-0.1525277198632429</v>
+        <v>0.03414108411105033</v>
       </c>
       <c r="F59">
-        <v>-0.06378251612882499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08931921396656131</v>
+      </c>
+      <c r="G59">
+        <v>-0.04233320133868203</v>
+      </c>
+      <c r="H59">
+        <v>0.007329679225577743</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1803133752172345</v>
+        <v>0.1755235837822649</v>
       </c>
       <c r="C60">
-        <v>0.0705805952138356</v>
+        <v>0.06446717005058709</v>
       </c>
       <c r="D60">
-        <v>-0.04586046447392362</v>
+        <v>-0.01017926674180818</v>
       </c>
       <c r="E60">
-        <v>-0.0337547642336969</v>
+        <v>0.05866500617275245</v>
       </c>
       <c r="F60">
-        <v>-0.07526368447868642</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06448040378218502</v>
+      </c>
+      <c r="G60">
+        <v>-0.1756607041458635</v>
+      </c>
+      <c r="H60">
+        <v>-0.358668018344363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02964232909028768</v>
+        <v>0.02953582562420494</v>
       </c>
       <c r="C61">
-        <v>0.0128349395618339</v>
+        <v>0.01385381928519058</v>
       </c>
       <c r="D61">
-        <v>-0.01197956257579251</v>
+        <v>0.03450734277007093</v>
       </c>
       <c r="E61">
-        <v>0.03027620230536478</v>
+        <v>-0.001406051657278737</v>
       </c>
       <c r="F61">
-        <v>-0.03228770102733278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03541811752583929</v>
+      </c>
+      <c r="G61">
+        <v>-0.03791031624344417</v>
+      </c>
+      <c r="H61">
+        <v>-0.02170003003837797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02470141498746083</v>
+        <v>0.02047535550768354</v>
       </c>
       <c r="C63">
-        <v>0.02404536844320815</v>
+        <v>0.004013064020935875</v>
       </c>
       <c r="D63">
-        <v>-0.02871571651322535</v>
+        <v>0.01181081687940633</v>
       </c>
       <c r="E63">
-        <v>0.05177362399100034</v>
+        <v>0.000669910778874024</v>
       </c>
       <c r="F63">
-        <v>-0.02882245478927127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02840492423920118</v>
+      </c>
+      <c r="G63">
+        <v>-0.02708382128705297</v>
+      </c>
+      <c r="H63">
+        <v>0.04152613798078411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05387175039947777</v>
+        <v>0.04949721716757857</v>
       </c>
       <c r="C64">
-        <v>0.01661030375292218</v>
+        <v>0.02067783798591584</v>
       </c>
       <c r="D64">
-        <v>-0.01398997826899303</v>
+        <v>0.04229682439366077</v>
       </c>
       <c r="E64">
-        <v>0.08673980113598866</v>
+        <v>-0.008042781166433149</v>
       </c>
       <c r="F64">
-        <v>-0.0484867221258523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.0363609889222816</v>
+      </c>
+      <c r="G64">
+        <v>-0.03601055686533484</v>
+      </c>
+      <c r="H64">
+        <v>0.00859175942447309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.007770460565103954</v>
+        <v>0.03849927269847309</v>
       </c>
       <c r="C65">
-        <v>0.002268855669002515</v>
+        <v>0.002736484597644945</v>
       </c>
       <c r="D65">
-        <v>-0.005637286118996748</v>
+        <v>0.03036041217169637</v>
       </c>
       <c r="E65">
-        <v>-0.003493931363002837</v>
+        <v>-0.003774497274474346</v>
       </c>
       <c r="F65">
-        <v>-5.308989630837125e-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03054238535546757</v>
+      </c>
+      <c r="G65">
+        <v>-0.005336776533220244</v>
+      </c>
+      <c r="H65">
+        <v>-0.05508243476992982</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05458904544323967</v>
+        <v>0.04525973071219101</v>
       </c>
       <c r="C66">
-        <v>0.03420608973670276</v>
+        <v>0.0204928824182359</v>
       </c>
       <c r="D66">
-        <v>-0.03878349573844852</v>
+        <v>0.07287640808879303</v>
       </c>
       <c r="E66">
-        <v>0.06114819225569895</v>
+        <v>0.01165387952332899</v>
       </c>
       <c r="F66">
-        <v>-0.03986242060663281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07456588089793639</v>
+      </c>
+      <c r="G66">
+        <v>-0.05548584085856396</v>
+      </c>
+      <c r="H66">
+        <v>-0.03901083318418205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02825255112109606</v>
+        <v>0.03570593829159351</v>
       </c>
       <c r="C67">
-        <v>0.01011854985131728</v>
+        <v>0.02284277826266804</v>
       </c>
       <c r="D67">
-        <v>0.01575387646799432</v>
+        <v>-0.01077511458132213</v>
       </c>
       <c r="E67">
-        <v>-0.01407235686794023</v>
+        <v>-0.0004766975933025474</v>
       </c>
       <c r="F67">
-        <v>-0.02960247338426768</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01327078548082701</v>
+      </c>
+      <c r="G67">
+        <v>-0.03279372712088869</v>
+      </c>
+      <c r="H67">
+        <v>-0.01026715148914398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06252789788130256</v>
+        <v>0.09932529907293181</v>
       </c>
       <c r="C68">
-        <v>0.06724393826354652</v>
+        <v>0.009418192867585985</v>
       </c>
       <c r="D68">
-        <v>0.1088324344394752</v>
+        <v>-0.2217598131929547</v>
       </c>
       <c r="E68">
-        <v>-0.2125218711464984</v>
+        <v>0.02626362616253684</v>
       </c>
       <c r="F68">
-        <v>-0.04174411467698351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1118048514327769</v>
+      </c>
+      <c r="G68">
+        <v>-0.01564222677213864</v>
+      </c>
+      <c r="H68">
+        <v>0.05038725699712369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07165894390583426</v>
+        <v>0.06092918276960354</v>
       </c>
       <c r="C69">
-        <v>0.03573857734702336</v>
+        <v>0.03780836387914478</v>
       </c>
       <c r="D69">
-        <v>-0.02106075356401523</v>
+        <v>0.01124071996680503</v>
       </c>
       <c r="E69">
-        <v>0.003608866470744662</v>
+        <v>0.007743127409721301</v>
       </c>
       <c r="F69">
-        <v>-0.01126649592271851</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02836537795311762</v>
+      </c>
+      <c r="G69">
+        <v>0.002067313033835416</v>
+      </c>
+      <c r="H69">
+        <v>0.03660730500435986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08013471505184215</v>
+        <v>0.1006326915171131</v>
       </c>
       <c r="C71">
-        <v>0.06639824189651687</v>
+        <v>0.02050191934936595</v>
       </c>
       <c r="D71">
-        <v>0.09040092344435745</v>
+        <v>-0.2057776788138311</v>
       </c>
       <c r="E71">
-        <v>-0.2502954601996137</v>
+        <v>0.03123801267512707</v>
       </c>
       <c r="F71">
-        <v>-0.07419814004487928</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1219680724688775</v>
+      </c>
+      <c r="G71">
+        <v>-0.028076284673665</v>
+      </c>
+      <c r="H71">
+        <v>0.03414693363704097</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1246642987453182</v>
+        <v>0.1057768767930944</v>
       </c>
       <c r="C72">
-        <v>0.1076252429356848</v>
+        <v>0.06545074309948713</v>
       </c>
       <c r="D72">
-        <v>-0.01694196521199324</v>
+        <v>0.04048083001085929</v>
       </c>
       <c r="E72">
-        <v>0.04740800320195073</v>
+        <v>0.01494772088894652</v>
       </c>
       <c r="F72">
-        <v>-0.0124964627409464</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1170687255898989</v>
+      </c>
+      <c r="G72">
+        <v>-0.1019258895458635</v>
+      </c>
+      <c r="H72">
+        <v>-0.1188623769725236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2543714076768565</v>
+        <v>0.245766231879615</v>
       </c>
       <c r="C73">
-        <v>0.09688856787179778</v>
+        <v>0.08454828457674091</v>
       </c>
       <c r="D73">
-        <v>-0.01802931332830221</v>
+        <v>0.003473633183822084</v>
       </c>
       <c r="E73">
-        <v>-0.09801125695782671</v>
+        <v>0.09237397356234976</v>
       </c>
       <c r="F73">
-        <v>-0.1552257177805319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06504065123124145</v>
+      </c>
+      <c r="G73">
+        <v>-0.2517695915268354</v>
+      </c>
+      <c r="H73">
+        <v>-0.5187950889774239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1302598210369759</v>
+        <v>0.1200820265347897</v>
       </c>
       <c r="C74">
-        <v>0.0334195937406664</v>
+        <v>0.06930334313546102</v>
       </c>
       <c r="D74">
-        <v>-0.02431184549834003</v>
+        <v>0.04650969673637213</v>
       </c>
       <c r="E74">
-        <v>0.02446769182715031</v>
+        <v>0.008585677299120254</v>
       </c>
       <c r="F74">
-        <v>0.1112428236025148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06344091978095631</v>
+      </c>
+      <c r="G74">
+        <v>0.08903243810862095</v>
+      </c>
+      <c r="H74">
+        <v>-0.007879176203395948</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2333839213708755</v>
+        <v>0.2327241486296646</v>
       </c>
       <c r="C75">
-        <v>0.09969400158068975</v>
+        <v>0.1365981965687849</v>
       </c>
       <c r="D75">
-        <v>-0.05991295479031958</v>
+        <v>0.04873363661667783</v>
       </c>
       <c r="E75">
-        <v>0.03536259062215331</v>
+        <v>0.0320507026544732</v>
       </c>
       <c r="F75">
-        <v>0.1734400615334077</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1219252982666004</v>
+      </c>
+      <c r="G75">
+        <v>0.1873586133116978</v>
+      </c>
+      <c r="H75">
+        <v>0.04977448891471205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2562843583355325</v>
+        <v>0.2186250250558275</v>
       </c>
       <c r="C76">
-        <v>0.1130558673096961</v>
+        <v>0.1325283846079693</v>
       </c>
       <c r="D76">
-        <v>0.009103595686565434</v>
+        <v>0.0425324209735459</v>
       </c>
       <c r="E76">
-        <v>0.04025650630830271</v>
+        <v>-0.01145246848842315</v>
       </c>
       <c r="F76">
-        <v>0.2157983690262741</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1289039907664079</v>
+      </c>
+      <c r="G76">
+        <v>0.209557481777425</v>
+      </c>
+      <c r="H76">
+        <v>0.06093782816771673</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1449373386133016</v>
+        <v>0.08973614247157369</v>
       </c>
       <c r="C77">
-        <v>-0.01339654301011174</v>
+        <v>0.02633681887351706</v>
       </c>
       <c r="D77">
-        <v>-0.06609752679111509</v>
+        <v>0.07122740184968501</v>
       </c>
       <c r="E77">
-        <v>0.06088606725325928</v>
+        <v>0.01352172366486705</v>
       </c>
       <c r="F77">
-        <v>-0.2222805333051032</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.006420516277244646</v>
+      </c>
+      <c r="G77">
+        <v>-0.1408972816726493</v>
+      </c>
+      <c r="H77">
+        <v>0.1692039492950418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06118796358022</v>
+        <v>0.0470034584001299</v>
       </c>
       <c r="C78">
-        <v>0.01243430707805587</v>
+        <v>0.02042162319244203</v>
       </c>
       <c r="D78">
-        <v>-0.04095482807337413</v>
+        <v>0.05156802401241114</v>
       </c>
       <c r="E78">
-        <v>0.08807594725866592</v>
+        <v>-0.001481703872894794</v>
       </c>
       <c r="F78">
-        <v>-0.03261239962629837</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04612533996943564</v>
+      </c>
+      <c r="G78">
+        <v>-0.06246686231319883</v>
+      </c>
+      <c r="H78">
+        <v>0.01135705373998539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1612375390356699</v>
+        <v>0.1688688839699632</v>
       </c>
       <c r="C80">
-        <v>-0.1623545759598531</v>
+        <v>0.06697649520248583</v>
       </c>
       <c r="D80">
-        <v>0.8659806602814298</v>
+        <v>-0.01278650137493288</v>
       </c>
       <c r="E80">
-        <v>0.4135308771122484</v>
+        <v>-0.9660699283031491</v>
       </c>
       <c r="F80">
-        <v>-0.04748002389505283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.08491913650356743</v>
+      </c>
+      <c r="G80">
+        <v>-0.0920488298443489</v>
+      </c>
+      <c r="H80">
+        <v>-0.02052202878183726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1636439153039069</v>
+        <v>0.1578618492306298</v>
       </c>
       <c r="C81">
-        <v>0.09038077604684829</v>
+        <v>0.09287960099077004</v>
       </c>
       <c r="D81">
-        <v>-0.02126356838552298</v>
+        <v>0.03060672196979379</v>
       </c>
       <c r="E81">
-        <v>0.03202226347301023</v>
+        <v>0.007346077476085303</v>
       </c>
       <c r="F81">
-        <v>0.2024381022349214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0923690347360165</v>
+      </c>
+      <c r="G81">
+        <v>0.1410793377938874</v>
+      </c>
+      <c r="H81">
+        <v>0.05411147575712513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05643912978623987</v>
+        <v>0.04286827786854754</v>
       </c>
       <c r="C83">
-        <v>-0.01241351294850341</v>
+        <v>0.01476096444662127</v>
       </c>
       <c r="D83">
-        <v>-0.04450170193944838</v>
+        <v>0.0247310006553713</v>
       </c>
       <c r="E83">
-        <v>0.03737847793370127</v>
+        <v>0.0132829176175563</v>
       </c>
       <c r="F83">
-        <v>-0.07329129735457898</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01523044511893171</v>
+      </c>
+      <c r="G83">
+        <v>-0.06180921251640116</v>
+      </c>
+      <c r="H83">
+        <v>0.01479624262034751</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2362595900689244</v>
+        <v>0.2226421230598459</v>
       </c>
       <c r="C85">
-        <v>0.07551980931820818</v>
+        <v>0.1177292291247308</v>
       </c>
       <c r="D85">
-        <v>-0.02374864437159748</v>
+        <v>0.06963150829207845</v>
       </c>
       <c r="E85">
-        <v>0.02496974970416216</v>
+        <v>0.02149114248690511</v>
       </c>
       <c r="F85">
-        <v>0.1952601440993507</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.11301966968236</v>
+      </c>
+      <c r="G85">
+        <v>0.1787263727090715</v>
+      </c>
+      <c r="H85">
+        <v>0.03525253365665298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01677272434012259</v>
+        <v>0.01360589429738539</v>
       </c>
       <c r="C86">
-        <v>-0.006348148120324151</v>
+        <v>0.0006746322332388454</v>
       </c>
       <c r="D86">
-        <v>-0.02494662980761814</v>
+        <v>0.02185871540970778</v>
       </c>
       <c r="E86">
-        <v>0.0775743311910418</v>
+        <v>0.006929982743194054</v>
       </c>
       <c r="F86">
-        <v>-0.08092787468955807</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01830652790872388</v>
+      </c>
+      <c r="G86">
+        <v>-0.09715271920000078</v>
+      </c>
+      <c r="H86">
+        <v>0.02026797705298895</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02860263531032762</v>
+        <v>0.02610022700253822</v>
       </c>
       <c r="C87">
-        <v>0.01899683618907992</v>
+        <v>0.005606690288511039</v>
       </c>
       <c r="D87">
-        <v>0.008842239194060452</v>
+        <v>0.0101646761985407</v>
       </c>
       <c r="E87">
-        <v>-0.007213692221593702</v>
+        <v>-0.001405067313791737</v>
       </c>
       <c r="F87">
-        <v>-0.05518084185501208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01667159056303595</v>
+      </c>
+      <c r="G87">
+        <v>-0.08640621334707856</v>
+      </c>
+      <c r="H87">
+        <v>0.001992727790897978</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01469370797397407</v>
+        <v>0.03886832161692697</v>
       </c>
       <c r="C88">
-        <v>0.0199617914157916</v>
+        <v>-0.005691605562994738</v>
       </c>
       <c r="D88">
-        <v>0.01437847205829746</v>
+        <v>-0.01358870105920432</v>
       </c>
       <c r="E88">
-        <v>0.01042757290699644</v>
+        <v>-0.004732992961869878</v>
       </c>
       <c r="F88">
-        <v>-0.0405749670908524</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01458840718038013</v>
+      </c>
+      <c r="G88">
+        <v>-0.009012726562459291</v>
+      </c>
+      <c r="H88">
+        <v>0.007490035365203206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09102328335348971</v>
+        <v>0.1551012039344702</v>
       </c>
       <c r="C89">
-        <v>0.08113736668658876</v>
+        <v>0.02601733525101872</v>
       </c>
       <c r="D89">
-        <v>0.1130394166031813</v>
+        <v>-0.346937025728936</v>
       </c>
       <c r="E89">
-        <v>-0.3160195973915245</v>
+        <v>0.06925758273136227</v>
       </c>
       <c r="F89">
-        <v>-0.1341388420848539</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1735514751078303</v>
+      </c>
+      <c r="G89">
+        <v>-0.02798047215639008</v>
+      </c>
+      <c r="H89">
+        <v>0.04348252427866374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08762384593455079</v>
+        <v>0.121551923775755</v>
       </c>
       <c r="C90">
-        <v>0.07781848598758416</v>
+        <v>0.02026163484404687</v>
       </c>
       <c r="D90">
-        <v>0.1572074861639418</v>
+        <v>-0.2952020514861396</v>
       </c>
       <c r="E90">
-        <v>-0.2719244055186828</v>
+        <v>0.04085393821146061</v>
       </c>
       <c r="F90">
-        <v>-0.07532986469592767</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1600324982207764</v>
+      </c>
+      <c r="G90">
+        <v>0.01068857867437811</v>
+      </c>
+      <c r="H90">
+        <v>0.05484241716737907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2920648752490933</v>
+        <v>0.2501171025452925</v>
       </c>
       <c r="C91">
-        <v>0.08804885723242756</v>
+        <v>0.1428474471050534</v>
       </c>
       <c r="D91">
-        <v>-0.03629345203981455</v>
+        <v>0.0581435398484782</v>
       </c>
       <c r="E91">
-        <v>-0.01132257303649288</v>
+        <v>0.02705249323849404</v>
       </c>
       <c r="F91">
-        <v>0.2429769117294763</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.109047741661424</v>
+      </c>
+      <c r="G91">
+        <v>0.2486733895003414</v>
+      </c>
+      <c r="H91">
+        <v>0.06477445810597508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1242525032630117</v>
+        <v>0.1849055316667888</v>
       </c>
       <c r="C92">
-        <v>0.07075697759718115</v>
+        <v>0.09672131837330029</v>
       </c>
       <c r="D92">
-        <v>0.1674578530640087</v>
+        <v>-0.2865399682732727</v>
       </c>
       <c r="E92">
-        <v>-0.2766925663158605</v>
+        <v>0.02573227148533027</v>
       </c>
       <c r="F92">
-        <v>-0.1003957903690359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.142984122416351</v>
+      </c>
+      <c r="G92">
+        <v>0.04509817158793134</v>
+      </c>
+      <c r="H92">
+        <v>0.1115557398684048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08038281108033965</v>
+        <v>0.140428457131836</v>
       </c>
       <c r="C93">
-        <v>0.06421437287041033</v>
+        <v>0.02992769157428476</v>
       </c>
       <c r="D93">
-        <v>0.1851362892760307</v>
+        <v>-0.3310362464438079</v>
       </c>
       <c r="E93">
-        <v>-0.3743471672680639</v>
+        <v>0.05734460907857609</v>
       </c>
       <c r="F93">
-        <v>-0.06553477971077896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.2075016229436754</v>
+      </c>
+      <c r="G93">
+        <v>0.008429759689572139</v>
+      </c>
+      <c r="H93">
+        <v>-0.03150281001520902</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2491463402447163</v>
+        <v>0.2558540723944961</v>
       </c>
       <c r="C94">
-        <v>0.1054343413270817</v>
+        <v>0.1265087790842465</v>
       </c>
       <c r="D94">
-        <v>0.01162623947760754</v>
+        <v>0.02742449995415179</v>
       </c>
       <c r="E94">
-        <v>-0.00670210391066545</v>
+        <v>0.03846844501191833</v>
       </c>
       <c r="F94">
-        <v>0.3450366110403617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1180167707021538</v>
+      </c>
+      <c r="G94">
+        <v>0.2824722932499354</v>
+      </c>
+      <c r="H94">
+        <v>0.08353388662293318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1372907280453201</v>
+        <v>0.09085681847700239</v>
       </c>
       <c r="C95">
-        <v>0.00858563864247873</v>
+        <v>0.05480676376335381</v>
       </c>
       <c r="D95">
-        <v>-0.1133161636989735</v>
+        <v>0.0827539575762056</v>
       </c>
       <c r="E95">
-        <v>0.1003367381640485</v>
+        <v>0.07857662236212372</v>
       </c>
       <c r="F95">
-        <v>-0.08302711427368856</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03769552514580415</v>
+      </c>
+      <c r="G95">
+        <v>-0.1037044582635002</v>
+      </c>
+      <c r="H95">
+        <v>0.04277810499913434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1915003691548584</v>
+        <v>0.1796461615165995</v>
       </c>
       <c r="C98">
-        <v>0.04734110600936354</v>
+        <v>0.0934572243855203</v>
       </c>
       <c r="D98">
-        <v>-0.01996862083327529</v>
+        <v>0.005175672473632786</v>
       </c>
       <c r="E98">
-        <v>-0.09163699648964656</v>
+        <v>0.06230733481715819</v>
       </c>
       <c r="F98">
-        <v>-0.06345658578361892</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02082021774227173</v>
+      </c>
+      <c r="G98">
+        <v>-0.1954167128970198</v>
+      </c>
+      <c r="H98">
+        <v>-0.3998484592789401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01077267686071116</v>
+        <v>0.01516383466163472</v>
       </c>
       <c r="C101">
-        <v>0.0278377802264307</v>
+        <v>0.002682429611550483</v>
       </c>
       <c r="D101">
-        <v>-0.03512411171974694</v>
+        <v>0.006454647340774472</v>
       </c>
       <c r="E101">
-        <v>0.1003117994123604</v>
+        <v>-0.003762575159207147</v>
       </c>
       <c r="F101">
-        <v>-0.1282340355188362</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0404572488214277</v>
+      </c>
+      <c r="G101">
+        <v>-0.07921300649955929</v>
+      </c>
+      <c r="H101">
+        <v>0.116649239698708</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1010927431021702</v>
+        <v>0.1147621198067304</v>
       </c>
       <c r="C102">
-        <v>0.02708245494933935</v>
+        <v>0.0536075143969366</v>
       </c>
       <c r="D102">
-        <v>-0.02397426212711761</v>
+        <v>0.03802938882607217</v>
       </c>
       <c r="E102">
-        <v>0.06763264043183663</v>
+        <v>0.002384857125273817</v>
       </c>
       <c r="F102">
-        <v>0.1160847675550803</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06503551835976498</v>
+      </c>
+      <c r="G102">
+        <v>0.1201849853843953</v>
+      </c>
+      <c r="H102">
+        <v>0.03264266716435684</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02553944662936388</v>
+        <v>0.02388379128145697</v>
       </c>
       <c r="C103">
-        <v>0.006660800395600952</v>
+        <v>0.01205768424559295</v>
       </c>
       <c r="D103">
-        <v>-0.004800694057811019</v>
+        <v>0.009181712046673372</v>
       </c>
       <c r="E103">
-        <v>0.002235214007366482</v>
+        <v>-0.006687646460475313</v>
       </c>
       <c r="F103">
-        <v>0.03184402089002983</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01394789791211461</v>
+      </c>
+      <c r="G103">
+        <v>0.01383532510209454</v>
+      </c>
+      <c r="H103">
+        <v>0.01509418382056876</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3755735488158605</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9046261225240286</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.03442650944414803</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01543500102063241</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1652046795328261</v>
+      </c>
+      <c r="G104">
+        <v>0.05424438363291246</v>
+      </c>
+      <c r="H104">
+        <v>0.007572823857875075</v>
       </c>
     </row>
   </sheetData>
